--- a/ParkByeongHyeon/kakao_kmeans_10clusters.xlsx
+++ b/ParkByeongHyeon/kakao_kmeans_10clusters.xlsx
@@ -28,16 +28,16 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['hbase-packet-inspector', 'cmux', 'cuesheet']</t>
-  </si>
-  <si>
-    <t>['buffalo', 'n2', 'hbase-region-inspector', 'mango']</t>
-  </si>
-  <si>
-    <t>[('hbase', 2), ('kafka', 1), ('pcap', 1), ('hadoop', 1), ('fzf', 1), ('cdh', 1), ('scala', 1), ('magic', 1), ('spark', 1), ('apache-spark', 1), ('yarn', 1), ('mango', 1)]</t>
-  </si>
-  <si>
-    <t>[('machinelearning', 3), ('python', 2), ('hbase', 2), ('cpp', 1), ('matrix-factorization', 1), ('recommender-system', 1), ('go', 1), ('nearest-neighbor-search', 1), ('approximate-nearest-neighbor-search', 1), ('knn', 1), ('approximate', 1), ('k-nearest-neighbors', 1), ('search', 1), ('json', 1), ('scala', 1)]</t>
+    <t>['n2', 'cmux', 'cuesheet', 'mango']</t>
+  </si>
+  <si>
+    <t>['buffalo', 'hbase-packet-inspector', 'hbase-region-inspector']</t>
+  </si>
+  <si>
+    <t>[('machinelearning', 2), ('hbase', 2), ('scala', 2), ('python', 1), ('go', 1), ('nearest-neighbor-search', 1), ('approximate-nearest-neighbor-search', 1), ('knn', 1), ('approximate', 1), ('k-nearest-neighbors', 1), ('hadoop', 1), ('fzf', 1), ('cdh', 1), ('magic', 1), ('spark', 1)]</t>
+  </si>
+  <si>
+    <t>[('hbase', 2), ('python', 1), ('machinelearning', 1), ('cpp', 1), ('matrix-factorization', 1), ('recommender-system', 1), ('kafka', 1), ('pcap', 1)]</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>

--- a/ParkByeongHyeon/kakao_kmeans_10clusters.xlsx
+++ b/ParkByeongHyeon/kakao_kmeans_10clusters.xlsx
@@ -28,16 +28,16 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['n2', 'cmux', 'cuesheet', 'mango']</t>
-  </si>
-  <si>
-    <t>['buffalo', 'hbase-packet-inspector', 'hbase-region-inspector']</t>
-  </si>
-  <si>
-    <t>[('machinelearning', 2), ('hbase', 2), ('scala', 2), ('python', 1), ('go', 1), ('nearest-neighbor-search', 1), ('approximate-nearest-neighbor-search', 1), ('knn', 1), ('approximate', 1), ('k-nearest-neighbors', 1), ('hadoop', 1), ('fzf', 1), ('cdh', 1), ('magic', 1), ('spark', 1)]</t>
-  </si>
-  <si>
-    <t>[('hbase', 2), ('python', 1), ('machinelearning', 1), ('cpp', 1), ('matrix-factorization', 1), ('recommender-system', 1), ('kafka', 1), ('pcap', 1)]</t>
+    <t>['buffalo', 'hbase-region-inspector', 'cuesheet']</t>
+  </si>
+  <si>
+    <t>['n2', 'hbase-packet-inspector', 'cmux', 'mango']</t>
+  </si>
+  <si>
+    <t>[('python', 1), ('machinelearning', 1), ('cpp', 1), ('matrix-factorization', 1), ('recommender-system', 1), ('hbase', 1), ('scala', 1), ('magic', 1), ('spark', 1), ('apache-spark', 1), ('yarn', 1), ('mango', 1)]</t>
+  </si>
+  <si>
+    <t>[('hbase', 3), ('machinelearning', 2), ('python', 1), ('go', 1), ('nearest-neighbor-search', 1), ('approximate-nearest-neighbor-search', 1), ('knn', 1), ('approximate', 1), ('k-nearest-neighbors', 1), ('kafka', 1), ('pcap', 1), ('hadoop', 1), ('fzf', 1), ('cdh', 1), ('search', 1)]</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>

--- a/ParkByeongHyeon/kakao_kmeans_10clusters.xlsx
+++ b/ParkByeongHyeon/kakao_kmeans_10clusters.xlsx
@@ -28,16 +28,16 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['buffalo', 'hbase-region-inspector', 'cuesheet']</t>
-  </si>
-  <si>
-    <t>['n2', 'hbase-packet-inspector', 'cmux', 'mango']</t>
-  </si>
-  <si>
-    <t>[('python', 1), ('machinelearning', 1), ('cpp', 1), ('matrix-factorization', 1), ('recommender-system', 1), ('hbase', 1), ('scala', 1), ('magic', 1), ('spark', 1), ('apache-spark', 1), ('yarn', 1), ('mango', 1)]</t>
-  </si>
-  <si>
-    <t>[('hbase', 3), ('machinelearning', 2), ('python', 1), ('go', 1), ('nearest-neighbor-search', 1), ('approximate-nearest-neighbor-search', 1), ('knn', 1), ('approximate', 1), ('k-nearest-neighbors', 1), ('kafka', 1), ('pcap', 1), ('hadoop', 1), ('fzf', 1), ('cdh', 1), ('search', 1)]</t>
+    <t>['hbase-packet-inspector', 'hbase-region-inspector', 'cuesheet', 'mango']</t>
+  </si>
+  <si>
+    <t>['buffalo', 'n2', 'cmux']</t>
+  </si>
+  <si>
+    <t>[('hbase', 3), ('scala', 2), ('kafka', 1), ('pcap', 1), ('magic', 1), ('spark', 1), ('apache-spark', 1), ('yarn', 1), ('mango', 1), ('search', 1), ('json', 1), ('logging', 1), ('couchbase', 1), ('zookeeper', 1), ('utility-library', 1)]</t>
+  </si>
+  <si>
+    <t>[('machinelearning', 3), ('python', 2), ('cpp', 1), ('matrix-factorization', 1), ('recommender-system', 1), ('go', 1), ('nearest-neighbor-search', 1), ('approximate-nearest-neighbor-search', 1), ('knn', 1), ('approximate', 1), ('k-nearest-neighbors', 1), ('hadoop', 1), ('fzf', 1), ('hbase', 1), ('cdh', 1)]</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
